--- a/Figures and tables/Supplementary Table 1- Plant Info.xlsx
+++ b/Figures and tables/Supplementary Table 1- Plant Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat-does-plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7F385-0CDE-41E6-A219-571EF1B5306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F41BD-4BE1-4D34-870E-E0CC2C21CAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="545">
   <si>
     <t>Group</t>
   </si>
@@ -1642,6 +1642,24 @@
   </si>
   <si>
     <t>AUS 84::IRGC 28947-2::[IRIS 313-11047]</t>
+  </si>
+  <si>
+    <t>POKKALI::IRGC 8948-1::[IRIS 313-8244]</t>
+  </si>
+  <si>
+    <t>IRIS 313-8244</t>
+  </si>
+  <si>
+    <t>IRGC 126002</t>
+  </si>
+  <si>
+    <t>DA 7::[IRIS 313-8703]</t>
+  </si>
+  <si>
+    <t>IRIS 313-8703</t>
+  </si>
+  <si>
+    <t>IRGC 124432</t>
   </si>
 </sst>
 </file>
@@ -1959,22 +1977,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -2008,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>376</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -2110,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>290</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>527</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>525</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -2212,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>312</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -2263,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>497</v>
       </c>
@@ -2280,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>515</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>304</v>
       </c>
@@ -2331,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -2348,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>386</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>402</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>412</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>436</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>460</v>
       </c>
@@ -2433,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>252</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>306</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -2484,7 +2502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>430</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -2518,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>533</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>332</v>
       </c>
@@ -2552,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>513</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>264</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>274</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>428</v>
       </c>
@@ -2654,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>432</v>
       </c>
@@ -2671,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>475</v>
       </c>
@@ -2688,7 +2706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>537</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -2739,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -2756,7 +2774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -2773,7 +2791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>204</v>
       </c>
@@ -2790,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -2807,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2824,7 +2842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -2841,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>256</v>
       </c>
@@ -2977,7 +2995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>324</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>380</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>462</v>
       </c>
@@ -3028,7 +3046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>523</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>521</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>499</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>338</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>246</v>
       </c>
@@ -3130,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -3147,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>234</v>
       </c>
@@ -3198,7 +3216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>446</v>
       </c>
@@ -3232,7 +3250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>326</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>388</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>394</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>408</v>
       </c>
@@ -3300,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>458</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>464</v>
       </c>
@@ -3334,7 +3352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>364</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>384</v>
       </c>
@@ -3385,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>444</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>501</v>
       </c>
@@ -3419,7 +3437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>398</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>414</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>535</v>
       </c>
@@ -3470,7 +3488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>280</v>
       </c>
@@ -3504,7 +3522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>284</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>310</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>456</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>473</v>
       </c>
@@ -3572,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>495</v>
       </c>
@@ -3589,7 +3607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -3606,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>491</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>493</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>505</v>
       </c>
@@ -3657,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>507</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>509</v>
       </c>
@@ -3691,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>322</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>350</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>354</v>
       </c>
@@ -3759,7 +3777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>374</v>
       </c>
@@ -3776,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>272</v>
       </c>
@@ -3793,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>483</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>318</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>438</v>
       </c>
@@ -3844,7 +3862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -3861,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>244</v>
       </c>
@@ -3895,7 +3913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -3912,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>262</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>320</v>
       </c>
@@ -3946,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>396</v>
       </c>
@@ -3963,7 +3981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>330</v>
       </c>
@@ -3997,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>454</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>360</v>
       </c>
@@ -4031,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -4048,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>529</v>
       </c>
@@ -4065,7 +4083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>422</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>390</v>
       </c>
@@ -4116,7 +4134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>336</v>
       </c>
@@ -4133,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>348</v>
       </c>
@@ -4150,7 +4168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>406</v>
       </c>
@@ -4167,7 +4185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>240</v>
       </c>
@@ -4184,7 +4202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>424</v>
       </c>
@@ -4201,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>346</v>
       </c>
@@ -4218,7 +4236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>344</v>
       </c>
@@ -4235,7 +4253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>477</v>
       </c>
@@ -4252,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>469</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -4286,7 +4304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>358</v>
       </c>
@@ -4303,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>230</v>
       </c>
@@ -4320,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>342</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -4354,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>489</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>503</v>
       </c>
@@ -4405,7 +4423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>190</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>276</v>
       </c>
@@ -4439,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>452</v>
       </c>
@@ -4456,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>440</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>466</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -4507,7 +4525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>471</v>
       </c>
@@ -4524,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>195</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>242</v>
       </c>
@@ -4558,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>481</v>
       </c>
@@ -4592,7 +4610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>328</v>
       </c>
@@ -4609,7 +4627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>224</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>294</v>
       </c>
@@ -4643,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>517</v>
       </c>
@@ -4660,7 +4678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>410</v>
       </c>
@@ -4677,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>382</v>
       </c>
@@ -4694,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>352</v>
       </c>
@@ -4711,7 +4729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>479</v>
       </c>
@@ -4728,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>485</v>
       </c>
@@ -4745,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>278</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>372</v>
       </c>
@@ -4779,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>308</v>
       </c>
@@ -4796,7 +4814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>282</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>400</v>
       </c>
@@ -4830,7 +4848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>187</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>286</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>378</v>
       </c>
@@ -4898,7 +4916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>426</v>
       </c>
@@ -4915,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>519</v>
       </c>
@@ -4932,7 +4950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>448</v>
       </c>
@@ -4946,6 +4964,40 @@
         <v>189</v>
       </c>
       <c r="E175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>540</v>
+      </c>
+      <c r="B176" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" t="s">
+        <v>539</v>
+      </c>
+      <c r="D176" t="s">
+        <v>186</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>543</v>
+      </c>
+      <c r="B177" t="s">
+        <v>544</v>
+      </c>
+      <c r="C177" t="s">
+        <v>542</v>
+      </c>
+      <c r="D177" t="s">
+        <v>186</v>
+      </c>
+      <c r="E177" t="s">
         <v>2</v>
       </c>
     </row>
